--- a/DATA_goal/Junction_Flooding_238.xlsx
+++ b/DATA_goal/Junction_Flooding_238.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41670.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>22.07</v>
+        <v>2.21</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>16.23</v>
+        <v>1.62</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.51</v>
+        <v>0.75</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>22.5</v>
+        <v>2.25</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12.51</v>
+        <v>1.25</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.69</v>
+        <v>0.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.5</v>
+        <v>0.85</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9.82</v>
+        <v>0.98</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>10.87</v>
+        <v>1.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.54</v>
+        <v>0.75</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>116.21</v>
+        <v>11.62</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>22.35</v>
+        <v>2.24</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.5</v>
+        <v>0.75</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.11</v>
+        <v>1.41</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.65</v>
+        <v>0.16</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>13.17</v>
+        <v>1.32</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.27</v>
+        <v>0.63</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.09</v>
+        <v>0.71</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.42</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>19.95</v>
+        <v>2</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41670.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>23.11</v>
+        <v>2.31</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.13</v>
+        <v>1.71</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.95</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>50.69</v>
+        <v>5.07</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>40.81</v>
+        <v>4.08</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.98</v>
+        <v>1.8</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>67.19</v>
+        <v>6.72</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>28.22</v>
+        <v>2.82</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.55</v>
+        <v>1.26</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18</v>
+        <v>1.8</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.23</v>
+        <v>2.02</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.79</v>
+        <v>2.18</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.27</v>
+        <v>1.83</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>25.77</v>
+        <v>2.58</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.68</v>
+        <v>1.57</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>270.8</v>
+        <v>27.08</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>51.04</v>
+        <v>5.1</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>16.87</v>
+        <v>1.69</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>34.02</v>
+        <v>3.4</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.9</v>
+        <v>1.79</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.53</v>
+        <v>0.25</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>34.31</v>
+        <v>3.43</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.9</v>
+        <v>1.49</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.35</v>
+        <v>1.33</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.61</v>
+        <v>1.56</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.4</v>
+        <v>2.14</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>61.24</v>
+        <v>6.12</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.33</v>
+        <v>0.93</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.09</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41670.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T4" s="4" t="n">
         <v>2.71</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>16.42</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>27.12</v>
-      </c>
       <c r="U4" s="4" t="n">
-        <v>6.79</v>
+        <v>0.68</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.34</v>
+        <v>0.43</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.16</v>
+        <v>0.22</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.87</v>
+        <v>0.79</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.84</v>
+        <v>0.18</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.82</v>
+        <v>0.18</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.63</v>
+        <v>0.26</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>15.63</v>
+        <v>1.56</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41670.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.85</v>
+        <v>0.99</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.32</v>
+        <v>0.73</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="L5" s="4" t="n">
         <v>0.87</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>21.72</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>8.68</v>
-      </c>
       <c r="M5" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.82</v>
+        <v>0.78</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.95</v>
+        <v>1.09</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.78</v>
+        <v>0.68</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>111.67</v>
+        <v>11.17</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>21.74</v>
+        <v>2.17</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.22</v>
+        <v>0.72</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.41</v>
+        <v>1.44</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.61</v>
+        <v>0.76</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.33</v>
+        <v>1.43</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.38</v>
+        <v>0.64</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.74</v>
+        <v>0.57</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.72</v>
+        <v>0.67</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.16</v>
+        <v>0.92</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>25.84</v>
+        <v>2.58</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41670.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>11.32</v>
+        <v>1.13</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>8.44</v>
+        <v>0.84</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>24.86</v>
+        <v>2.49</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>20.11</v>
+        <v>2.01</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>8.81</v>
+        <v>0.88</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>34.44</v>
+        <v>3.44</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>6.22</v>
+        <v>0.62</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>8.859999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>1</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>10.68</v>
+        <v>1.07</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.75</v>
+        <v>0.28</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>7.66</v>
+        <v>0.77</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>128.86</v>
+        <v>12.89</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>25.01</v>
+        <v>2.5</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>8.26</v>
+        <v>0.83</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>16.7</v>
+        <v>1.67</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>17.12</v>
+        <v>1.71</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>7.3</v>
+        <v>0.73</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>6.52</v>
+        <v>0.65</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>7.65</v>
+        <v>0.76</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>10.49</v>
+        <v>1.05</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>31.25</v>
+        <v>3.13</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41670.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>13.07</v>
+        <v>1.31</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>28.63</v>
+        <v>2.86</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>23.3</v>
+        <v>2.33</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>10.19</v>
+        <v>1.02</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>39.95</v>
+        <v>4</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>15.9</v>
+        <v>1.59</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>7.18</v>
+        <v>0.72</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>11.47</v>
+        <v>1.15</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>12.26</v>
+        <v>1.23</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.21</v>
+        <v>0.32</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>10.3</v>
+        <v>1.03</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>149.47</v>
+        <v>14.95</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>28.8</v>
+        <v>2.88</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>9.51</v>
+        <v>0.95</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>19.31</v>
+        <v>1.93</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>10.14</v>
+        <v>1.01</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.36</v>
+        <v>0.14</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>19.73</v>
+        <v>1.97</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>8.4</v>
+        <v>0.84</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>7.47</v>
+        <v>0.75</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>8.77</v>
+        <v>0.88</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>12.08</v>
+        <v>1.21</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>36.27</v>
+        <v>3.63</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>5.32</v>
+        <v>0.53</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>11.89</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41670.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>21.34</v>
+        <v>2.13</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>46.61</v>
+        <v>4.66</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>38.22</v>
+        <v>3.82</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>16.72</v>
+        <v>1.67</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>64</v>
+        <v>6.4</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>25.91</v>
+        <v>2.59</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11.68</v>
+        <v>1.17</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>17.09</v>
+        <v>1.71</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>18.69</v>
+        <v>1.87</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>19.88</v>
+        <v>1.99</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.3</v>
+        <v>0.53</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>16.77</v>
+        <v>1.68</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>23.86</v>
+        <v>2.39</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>14.07</v>
+        <v>1.41</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>247.91</v>
+        <v>24.79</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>46.86</v>
+        <v>4.69</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>15.48</v>
+        <v>1.55</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>31.58</v>
+        <v>3.16</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>16.58</v>
+        <v>1.66</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>31.64</v>
+        <v>3.16</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>12.08</v>
+        <v>1.21</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>14.2</v>
+        <v>1.42</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>19.66</v>
+        <v>1.97</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>58.09</v>
+        <v>5.81</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>19.35</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41670.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>13.66</v>
+        <v>1.37</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>10.23</v>
+        <v>1.02</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>29.89</v>
+        <v>2.99</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>24.44</v>
+        <v>2.44</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>10.68</v>
+        <v>1.07</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>44.39</v>
+        <v>4.44</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>16.6</v>
+        <v>1.66</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>7.52</v>
+        <v>0.75</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>10.88</v>
+        <v>1.09</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>11.98</v>
+        <v>1.2</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>12.77</v>
+        <v>1.28</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.38</v>
+        <v>0.34</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>10.75</v>
+        <v>1.08</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>15.29</v>
+        <v>1.53</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>9.06</v>
+        <v>0.91</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>156.35</v>
+        <v>15.64</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>30.14</v>
+        <v>3.01</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>20.27</v>
+        <v>2.03</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>10.62</v>
+        <v>1.06</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>21.47</v>
+        <v>2.15</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>8.77</v>
+        <v>0.88</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>12.61</v>
+        <v>1.26</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>40.42</v>
+        <v>4.04</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>5.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41670.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>6.66</v>
+        <v>0.67</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Q10" s="4" t="n">
         <v>0.45</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>14.63</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>23.96</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>4.5</v>
-      </c>
       <c r="R10" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>72.81</v>
+        <v>7.28</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>14.86</v>
+        <v>1.49</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>4.86</v>
+        <v>0.49</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>11.41</v>
+        <v>1.14</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>3.84</v>
+        <v>0.38</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>4.5</v>
+        <v>0.45</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>6.17</v>
+        <v>0.62</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>21.93</v>
+        <v>2.19</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_238.xlsx
+++ b/DATA_goal/Junction_Flooding_238.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41670.34027777778</v>
+        <v>44919.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.21</v>
+        <v>0.25</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.62</v>
+        <v>0.31</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.25</v>
+        <v>0.55</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.25</v>
+        <v>0.16</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.52</v>
+        <v>0.09</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.85</v>
+        <v>0.11</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.98</v>
+        <v>0.09</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.09</v>
+        <v>0.27</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.75</v>
+        <v>0.11</v>
       </c>
       <c r="R2" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="V2" s="4" t="n">
         <v>0.24</v>
       </c>
-      <c r="S2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.75</v>
-      </c>
       <c r="W2" s="4" t="n">
-        <v>1.41</v>
+        <v>0.39</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.1</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.32</v>
+        <v>0.2</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.66</v>
+        <v>0.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.63</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.71</v>
+        <v>0.09</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.31</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2</v>
+        <v>0.31</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41670.34722222222</v>
+        <v>44919.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.31</v>
+        <v>2.42</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.07</v>
+        <v>4.88</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.72</v>
+        <v>6.3</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="J3" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AB3" s="4" t="n">
         <v>1.26</v>
       </c>
-      <c r="K3" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="M3" s="4" t="n">
+      <c r="AC3" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AD3" s="4" t="n">
         <v>2.18</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>27.08</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>2.14</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.12</v>
+        <v>5.66</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41670.35416666666</v>
+        <v>44919.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.27</v>
+        <v>1.8</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.31</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.62</v>
+        <v>3.67</v>
       </c>
       <c r="F4" s="4" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="N4" s="4" t="n">
         <v>0.44</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="O4" s="4" t="n">
-        <v>0.23</v>
+        <v>1.32</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.31</v>
+        <v>1.97</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.23</v>
+        <v>1.1</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>2.71</v>
+        <v>19.84</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.68</v>
+        <v>3.79</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.21</v>
+        <v>1.27</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.43</v>
+        <v>2.58</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.22</v>
+        <v>1.32</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.79</v>
+        <v>2.65</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.1</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.95</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.21</v>
+        <v>1.12</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.26</v>
+        <v>1.63</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.56</v>
+        <v>4.93</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.26</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41670.36111111111</v>
+        <v>44919.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.99</v>
+        <v>2.36</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.73</v>
+        <v>1.74</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.17</v>
+        <v>4.95</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.74</v>
+        <v>4.13</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.76</v>
+        <v>1.84</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.88</v>
+        <v>7.04</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.21</v>
+        <v>2.75</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.54</v>
+        <v>1.25</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.76</v>
+        <v>1.91</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.87</v>
+        <v>2</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.09</v>
       </c>
       <c r="N5" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>26.72</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.24</v>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.11</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>1.43</v>
+        <v>3.44</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.64</v>
+        <v>1.47</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.57</v>
+        <v>1.27</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.67</v>
+        <v>1.5</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.92</v>
+        <v>2.15</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.58</v>
+        <v>6.36</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.93</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.9</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41670.36805555555</v>
+        <v>44919.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.13</v>
+        <v>18.2</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.84</v>
+        <v>13.44</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.49</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.49</v>
+        <v>38.14</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.01</v>
+        <v>31.83</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.88</v>
+        <v>14.22</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>3.44</v>
+        <v>56.4</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.38</v>
+        <v>21.21</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.62</v>
+        <v>9.67</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.89</v>
+        <v>14.75</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1</v>
+        <v>15.41</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.07</v>
+        <v>16.1</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.28</v>
+        <v>4.47</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.89</v>
+        <v>13.72</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.26</v>
+        <v>20.13</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.77</v>
+        <v>11.4</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.35</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>12.89</v>
+        <v>204.28</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>2.5</v>
+        <v>38.95</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.83</v>
+        <v>12.97</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.67</v>
+        <v>26.42</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.88</v>
+        <v>13.7</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.12</v>
+        <v>1.82</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.71</v>
+        <v>27.18</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.73</v>
+        <v>11.33</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.65</v>
+        <v>9.81</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.76</v>
+        <v>11.59</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.05</v>
+        <v>16.57</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>3.13</v>
+        <v>51.01</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.46</v>
+        <v>7.2</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41670.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>14.95</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41670.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>24.79</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.94</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41670.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>15.64</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41670.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41670.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>19.85</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>27.68</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>101.39</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>19.94</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>13.38</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>8.24</v>
+        <v>15.92</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_238.xlsx
+++ b/DATA_goal/Junction_Flooding_238.xlsx
@@ -443,33 +443,33 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>44919.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44919.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.42</v>
+        <v>24.23</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.74</v>
+        <v>17.42</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.88</v>
+        <v>48.83</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.1</v>
+        <v>41.05</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.86</v>
+        <v>18.63</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.3</v>
+        <v>63.02</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.72</v>
+        <v>27.23</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.47</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.96</v>
+        <v>19.62</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.97</v>
+        <v>19.73</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.06</v>
+        <v>20.6</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.75</v>
+        <v>17.54</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.62</v>
+        <v>26.17</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.47</v>
+        <v>14.69</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>26.69</v>
+        <v>266.94</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.03</v>
+        <v>50.3</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.7</v>
+        <v>16.99</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.43</v>
+        <v>34.29</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.76</v>
+        <v>17.58</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.37</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.21</v>
+        <v>32.11</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.46</v>
+        <v>14.62</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.56</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.89</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.18</v>
+        <v>21.77</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.66</v>
+        <v>56.57</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.05</v>
+        <v>20.48</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44919.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.8</v>
+        <v>18.03</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.1</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.67</v>
+        <v>36.74</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.09</v>
+        <v>30.85</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.4</v>
+        <v>13.97</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.46</v>
+        <v>54.57</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.05</v>
+        <v>20.45</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.6</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.87</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.55</v>
+        <v>15.48</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.35</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.21</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.97</v>
+        <v>19.69</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.1</v>
+        <v>11.02</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>19.84</v>
+        <v>198.45</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.79</v>
+        <v>37.9</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.27</v>
+        <v>12.72</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.58</v>
+        <v>25.76</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.23</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.65</v>
+        <v>26.48</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.99</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.19</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.63</v>
+        <v>16.29</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.93</v>
+        <v>49.34</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.92</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.39</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44919.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.36</v>
+        <v>23.6</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.43</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.95</v>
+        <v>49.5</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.13</v>
+        <v>41.29</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.84</v>
+        <v>18.43</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>7.04</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.75</v>
+        <v>27.54</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.53</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.91</v>
+        <v>19.13</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2</v>
+        <v>19.98</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.09</v>
+        <v>20.91</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.8</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.81</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.61</v>
+        <v>26.08</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.8</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>26.72</v>
+        <v>267.19</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.05</v>
+        <v>50.46</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.82</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.42</v>
+        <v>34.24</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.77</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.37</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.44</v>
+        <v>34.36</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.69</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.74</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.15</v>
+        <v>21.48</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.36</v>
+        <v>63.61</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.34</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.07</v>
+        <v>20.66</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_238.xlsx
+++ b/DATA_goal/Junction_Flooding_238.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,100 +655,100 @@
         <v>44919.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.24</v>
+        <v>5.237</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.61</v>
+        <v>1.607</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.48</v>
+        <v>2.478</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.05</v>
+        <v>3.053</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.52</v>
+        <v>2.519</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.49</v>
+        <v>5.488</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.55</v>
+        <v>1.554</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.02</v>
+        <v>4.022</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.069</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
         <v>0.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.75</v>
+        <v>2.749</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.11</v>
+        <v>1.106</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0.51</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.063</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.09</v>
+        <v>20.094</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.8</v>
+        <v>4.803</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.37</v>
+        <v>2.372</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.89</v>
+        <v>3.891</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>1.034</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.249</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.15</v>
+        <v>1.154</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.674</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.129</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>2.866</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.128</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.45</v>
+        <v>0.446</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>1.43</v>
@@ -759,7 +759,7 @@
         <v>44919.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>24.23</v>
+        <v>24.232</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>17.42</v>
@@ -768,31 +768,31 @@
         <v>0.61</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>48.83</v>
+        <v>48.827</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>41.05</v>
+        <v>41.049</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.63</v>
+        <v>18.627</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>63.02</v>
+        <v>63.018</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>27.23</v>
+        <v>27.226</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.47</v>
+        <v>12.469</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>19.62</v>
+        <v>19.621</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>19.73</v>
+        <v>19.726</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>20.6</v>
+        <v>20.596</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>5.81</v>
@@ -804,58 +804,58 @@
         <v>26.17</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.69</v>
+        <v>14.685</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.57</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.59</v>
+        <v>0.587</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>266.94</v>
+        <v>266.943</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>50.3</v>
+        <v>50.304</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>16.99</v>
+        <v>16.992</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>34.29</v>
+        <v>34.291</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.58</v>
+        <v>17.575</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.37</v>
+        <v>2.366</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>32.11</v>
+        <v>32.111</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.62</v>
+        <v>14.622</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.56</v>
+        <v>12.564</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>14.89</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.77</v>
+        <v>21.766</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.13</v>
+        <v>1.133</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>56.57</v>
+        <v>56.574</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.204000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>20.48</v>
+        <v>20.477</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44919.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18.03</v>
+        <v>18.033</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.1</v>
+        <v>13.103</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.437</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>36.74</v>
+        <v>36.737</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>30.85</v>
+        <v>30.851</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.97</v>
+        <v>13.967</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>54.57</v>
+        <v>54.566</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.45</v>
+        <v>20.452</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>9.388</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.6</v>
+        <v>14.604</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.87</v>
+        <v>14.873</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.48</v>
+        <v>15.477</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.35</v>
+        <v>4.354</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.21</v>
+        <v>13.205</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>19.69</v>
+        <v>19.687</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.02</v>
+        <v>11.023</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.434</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.42</v>
+        <v>0.417</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>198.45</v>
+        <v>198.448</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>37.9</v>
+        <v>37.895</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.72</v>
+        <v>12.716</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>25.76</v>
+        <v>25.764</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.23</v>
+        <v>13.226</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.77</v>
+        <v>1.775</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>26.48</v>
+        <v>26.476</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.99</v>
+        <v>10.995</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>9.452</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.19</v>
+        <v>11.192</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>16.29</v>
+        <v>16.291</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.716</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>49.34</v>
+        <v>49.335</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.92</v>
+        <v>6.921</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.39</v>
+        <v>15.391</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>20.66</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44919.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.44</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>38.14</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>31.83</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.22</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.75</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.13</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>204.28</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>38.95</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.42</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>27.18</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16.57</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>51.01</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.92</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_238.xlsx
+++ b/DATA_goal/Junction_Flooding_238.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,37 +967,37 @@
         <v>44919.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.6</v>
+        <v>23.598</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.43</v>
+        <v>17.425</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.65</v>
+        <v>0.652</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>49.5</v>
+        <v>49.502</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>41.29</v>
+        <v>41.293</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.43</v>
+        <v>18.429</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>70.40000000000001</v>
+        <v>70.40300000000001</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>27.54</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.53</v>
+        <v>12.535</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.13</v>
+        <v>19.134</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>19.98</v>
+        <v>19.985</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>20.91</v>
@@ -1006,64 +1006,168 @@
         <v>5.8</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.81</v>
+        <v>17.806</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>26.08</v>
+        <v>26.078</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.8</v>
+        <v>14.802</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.43</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.596</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>267.19</v>
+        <v>267.189</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>50.46</v>
+        <v>50.458</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>16.82</v>
+        <v>16.824</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>34.24</v>
+        <v>34.242</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.77</v>
+        <v>17.768</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.37</v>
+        <v>2.366</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>34.36</v>
+        <v>34.356</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.69</v>
+        <v>14.691</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.74</v>
+        <v>12.735</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.04</v>
+        <v>15.038</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.48</v>
+        <v>21.484</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.525</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>63.61</v>
+        <v>63.605</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.34</v>
+        <v>9.343999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>20.66</v>
+        <v>20.655</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44919.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>31.83</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>20.13</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>204.28</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>38.95</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>26.42</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>51.01</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>15.92</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_238.xlsx
+++ b/DATA_goal/Junction_Flooding_238.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,37 +967,37 @@
         <v>44919.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.598</v>
+        <v>23.6</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.425</v>
+        <v>17.43</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.652</v>
+        <v>0.65</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>49.502</v>
+        <v>49.5</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>41.293</v>
+        <v>41.29</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.429</v>
+        <v>18.43</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>70.40300000000001</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>27.54</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.535</v>
+        <v>12.53</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.134</v>
+        <v>19.13</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>19.985</v>
+        <v>19.98</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>20.91</v>
@@ -1006,168 +1006,64 @@
         <v>5.8</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.806</v>
+        <v>17.81</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>26.078</v>
+        <v>26.08</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.802</v>
+        <v>14.8</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.43</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.596</v>
+        <v>0.6</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>267.189</v>
+        <v>267.19</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>50.458</v>
+        <v>50.46</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>16.824</v>
+        <v>16.82</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>34.242</v>
+        <v>34.24</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.768</v>
+        <v>17.77</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.366</v>
+        <v>2.37</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>34.356</v>
+        <v>34.36</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.691</v>
+        <v>14.69</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.735</v>
+        <v>12.74</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.038</v>
+        <v>15.04</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.484</v>
+        <v>21.48</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.525</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>63.605</v>
+        <v>63.61</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.343999999999999</v>
+        <v>9.34</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>20.655</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44919.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.44</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>38.14</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>31.83</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.22</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.75</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.13</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>204.28</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>38.95</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.42</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>27.18</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16.57</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>51.01</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.92</v>
+        <v>20.66</v>
       </c>
     </row>
   </sheetData>
